--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value541.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value541.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.072240433909492</v>
+        <v>1.435070037841797</v>
       </c>
       <c r="B1">
-        <v>1.056636096726465</v>
+        <v>1.895448565483093</v>
       </c>
       <c r="C1">
-        <v>1.093426719527545</v>
+        <v>2.130882263183594</v>
       </c>
       <c r="D1">
-        <v>1.46116457242244</v>
+        <v>2.43713903427124</v>
       </c>
       <c r="E1">
-        <v>2.496984389192555</v>
+        <v>2.968391418457031</v>
       </c>
     </row>
   </sheetData>
